--- a/Project/00_Raw_data/morphology_LDP.xlsx
+++ b/Project/00_Raw_data/morphology_LDP.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:N2215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
